--- a/files/ans.xlsx
+++ b/files/ans.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,149 +525,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>UATS003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Embodiments of the present disclosure may include a compound of formula (X). In some embodiments, x may be ═O, ═N—OH or ═N—OC(O)Me. Embodiments may also include y may be hydrogen or. Embodiments may also include q may be hydrogen or chloro. Embodiments may also include z may be hydrogen or —CH2COOR1. In some embodiments, R1 may be selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl. Embodiments may also include provided that when Y may be hydrogen, Z may be not hydrogen. Embodiments may also include or a salt thereof.,Embodiments may also include a compound according toof formula (II). In some embodiments, R1 may be selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl. Embodiments may also include x may be ═O, ═N—OH or ═N—OC(O)Me. Embodiments may also include y may be hydrogen or. Embodiments may also include q may be hydrogen or chloro. Embodiments may also include or a salt thereof.,Embodiments may also include  R1 may be selected from hydrogen, C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, optionally substituted phenyl and optionally substituted benzyl. Embodiments may also include  R1 may be selected from hydrogen, C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, phenyl and benzyl. In some embodiments, the phenyl and benzyl may be optionally substituted by one or more halo, nitro, cyano, hydroxy, C1-6alkyl, C1-6alkoxy, C1-6alkanoyl, N—(C1-6alkyl)amino, N,N—(C1-6alkyl)2-amino, N—(C1-6alkanoyl)amino, N—(C1-6alkanoyl)-N—(C1-6alkyl)amino, carbamoyl, sulfamoyl, N—(C1-6-alkyl)carbamoyl, N,N—(C1-6alkyl)2-carbamoyl, N—(C1-6alkyl)sulfamoyl, N,N—(C1-6alkyl)2sulfamoyl or (C1-6alkyl)-S(O)a—. In some embodiments, a may be 0-2.,Embodiments may also include  R1 may be selected from C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, phenyl and benzyl. Embodiments may also include Y may be hydrogen. Embodiments may also include Y may be 4-chlorophenylsulfanyl. Embodiments may also include X may be ═O. Embodiments may also include X may be ═N—OH.,Embodiments may also include a compound according to, which may be of formula (XI). In some embodiments, x may be ═O, ═N—OH or ═N—OC(O)Me. Embodiments may also include y may be. Embodiments may also include q may be hydrogen or chloro. Embodiments may also include or a salt thereof. Embodiments may also include Y may be 4-chlorophenylsulfanyl. Embodiments may also include X may be ═O or ═N—OH.,Embodiments of the present disclosure may also include a process including reaction of a compound of formula (II) of formula (IIc) with an acetylating agent. In some embodiments, the values of R1 may be as defined in claim 1. In some embodiments, Q may be chloro. In some embodiments, the acetylating agent may be acetic anhydride. In some embodiments, the reaction may be carried out in the presence of an iodide salt. In some embodiments, the reaction may be carried out in the presence of a Lewis acid. In some embodiments, the reaction may be carried out in the presence of a carboxylic acid co-solvent.,Embodiments of the present disclosure may also include a process including the reaction of a compound of formula (II) of formula (IId) with an acetylating agent. In some embodiments, R1 may be as defined in claim 1.,Embodiments of the present disclosure may also include a process for the preparation of a compound of formula (I) which may include reaction of a compound of formula (IIAA) where R1′ may be hydrogen or C1-6alkyl with an acylating agent followed by de-esterification. Embodiments may also include R1′ hydrogen or ethyl. In some embodiments, the acylating agent may be acetic anhydride. Embodiments may also include a process according towhich may be carried out in the presence of xylene and sodium iodide.</v>
-      </c>
-      <c r="C4" t="str">
-        <v>FIG. 1 is a block diagram illustrating a compound, according to some embodiments of the present disclosure.,FIG. 2 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 3 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 4 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 5 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 6 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 7 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 8 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 9 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 10 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.</v>
-      </c>
-      <c r="D4" t="str">
-        <v>FIG. 1 is a block diagram that describes a compound 100, according to some embodiments of the present disclosure. In some embodiments, the compound 100 may include y 110 may be hydrogen or, q 120 may be hydrogen or chloro, and z 130 may be hydrogen or —CH2COOR1. X may be ═O, ═N—OH or ═N—OC(O)Me. R1 may be selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl. Provided that when Y may be hydrogen, Z may be not hydrogen. Or a salt thereof.,FIG. 2 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof.,FIG. 3 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, the phenyl and benzyl may be optionally substituted by one or more halo, nitro, cyano, hydroxy, C1-6alkyl, C1-6alkoxy, C1-6alkanoyl, N—(C1-6alkyl)amino, N,N—(C1-6alkyl)2-amino, N—(C1-6alkanoyl)amino, N—(C1-6alkanoyl)-N—(C1-6alkyl)amino, carbamoyl, sulfamoyl, N—(C1-6-alkyl)carbamoyl, N,N—(C1-6alkyl)2-carbamoyl, N—(C1-6alkyl)sulfamoyl, N,N—(C1-6alkyl)2sulfamoyl or (C1-6alkyl)-S(O)a—. A may be 0-2.,FIG. 4 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof.,FIG. 5 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, y may be hydrogen.,FIG. 6 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, y may be 4-chlorophenylsulfanyl.,FIG. 7 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, x may be ═O.,FIG. 8 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, of formula (II):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, x may be ═N—OH.,FIG. 9 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, , which may be of formula (XI):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, y may be 4-chlorophenylsulfanyl.,FIG. 10 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, , which may be of formula (XI):. X may be ═O, ═N—OH or ═N—OC(O)Me. Or a salt thereof. In some embodiments, x may be ═O or ═N—OH.,In some embodiments, reaction of a compound of formula (II) of formula (IIc), the process may include performing one or more additional steps. With an acetylating agent. The values of R1 may be as defined in claim 1. Q may be chloro. In some embodiments, the acetylating agent may be acetic anhydride. In some embodiments, the reaction may be carried out in the presence of an iodide salt. In some embodiments, the reaction may be carried out in the presence of a Lewis acid. In some embodiments, the reaction may be carried out in the presence of a carboxylic acid co-solvent.,In some embodiments, the reaction of a compound of formula (II) of formula (IId), the process may include performing one or more additional steps. With an acetylating agent. R1 may be as defined in claim 1.,In some embodiments, which comprises reaction of a compound of formula (IIAA), the process may include performing one or more additional steps. Where R1′ may be hydrogen or C1-6alkyl with an acylating agent followed by de-esterification. In some embodiments, R1′ hydrogen or ethyl. In some embodiments, the acylating agent may be acetic anhydride.</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Embodiments of the present disclosure may include a compound of formula (X). In some embodiments, x may be ═O, ═N—OH or ═N—OC(O)Me. Embodiments may also include y may be hydrogen or. Embodiments may also include q may be hydrogen or chloro. Embodiments may also include z may be hydrogen or —CH2COOR1. In some embodiments, R1 may be selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl. Embodiments may also include provided that when Y may be hydrogen, Z may be not hydrogen. Embodiments may also include or a salt thereof.</v>
-      </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">The invention claimed is:_x000d_
-1. A compound of formula (X):_x000d_
- wherein: _x000d_
- X is ═O, ═N—OH or ═N—OC(O)Me; _x000d_
- Y is hydrogen or_x000d_
- Q is hydrogen or chloro; and _x000d_
- Z is hydrogen or —CH2COOR1 wherein R1 is selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl; _x000d_
- provided that when Y is hydrogen, Z is not hydrogen _x000d_
- or a salt thereof._x000d_
-2. A compound according to claim 1 of formula (II):_x000d_
-wherein: _x000d_
- R1 is selected from hydrogen, optionally substituted hydrocarbyl and optionally substituted heterocyclyl; _x000d_
- X is ═O, ═N—OH or ═N—OC(O)Me; _x000d_
- Y is hydrogen or_x000d_
- Q is hydrogen or chloro; _x000d_
- or a salt thereof._x000d_
-3. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein: _x000d_
- R1 is selected from hydrogen, C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, optionally substituted phenyl and optionally substituted benzyl._x000d_
-4. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein: _x000d_
- R1 is selected from hydrogen, C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, phenyl and benzyl; wherein the phenyl and benzyl are optionally substituted by one or more halo, nitro, cyano, hydroxy, C1-6alkyl, C1-6alkoxy, C1-6alkanoyl, N—(C1-6alkyl)amino, N,N—(C1-6alkyl)2-amino, N—(C1-6alkanoyl)amino, N—(C1-6alkanoyl)-N—(C1-6alkyl)amino, carbamoyl, sulfamoyl, N—(C1-6-alkyl)carbamoyl, N,N—(C1-6alkyl)2-carbamoyl, N—(C1-6alkyl)sulfamoyl, N,N—(C1-6alkyl)2sulfamoyl or (C1-6alkyl)-S(O)a— wherein a is 0-2._x000d_
-5. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein: _x000d_
- R1 is selected from C1-6alkyl, C2-6alkenyl, C2-6alkynyl, C3-6cycloalkyl, phenyl and benzyl._x000d_
-6. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein Y is hydrogen._x000d_
-7. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein Y is 4-chlorophenylsulfanyl._x000d_
-8. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein X is ═O._x000d_
-9. The compound of formula (II), or a salt thereof, as claimed in claim 2, wherein X is ═N—OH._x000d_
-10. A compound according to claim 1, which is of formula (XI):_x000d_
- wherein: _x000d_
- X is ═O, ═N—OH or ═N—OC(O)Me; _x000d_
- Y is_x000d_
- Q is hydrogen or chloro; _x000d_
- or a salt thereof._x000d_
-11. The compound of formula (XI), or salt thereof, as claimed in claim 10, wherein Y is 4-chlorophenylsulfanyl._x000d_
-12. The compound of formula (XI), or salt thereof, as claimed in claim 10, wherein X is ═O or ═N—OH._x000d_
-13. A process comprising reaction of a compound of formula (II) of formula (IIc):_x000d_
- with an acetylating agent; _x000d_
- wherein the values of R1 are as defined in claim 1, and wherein Q is chloro._x000d_
-14. A process comprising the reaction of a compound of formula (II) of formula (IId):_x000d_
- with an acetylating agent; _x000d_
- wherein R1 is as defined in claim 1._x000d_
-15. The process as claimed in claim 13 or claim 14 wherein the acetylating agent is acetic anhydride._x000d_
-16. The process as claimed in claim 13 or 14, wherein the reaction is carried out in the presence of an iodide salt._x000d_
-17. The process as claimed in claim 13 or 14, wherein the reaction is carried out in the presence of a Lewis acid._x000d_
-18. The process as claimed in claim 13 or 14, wherein the reaction is carried out in the presence of a carboxylic acid co-solvent._x000d_
-19. A process for the preparation of a compound of formula (I):_x000d_
- which comprises reaction of a compound of formula (IIAA):_x000d_
- where R1′ is hydrogen or C1-6alkyl with an acylating agent followed by de-esterification._x000d_
-20. A process according to claim 19 in which R1′ hydrogen or ethyl._x000d_
-21. A process according to claim 19 in which the acylating agent is acetic anhydride._x000d_
-22. A process according to claim 19 which is carried out in the presence of xylene and sodium iodide.</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>UATS004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Embodiments of the present disclosure may include a compound of the formula (II). Embodiments may also include a pharmaceutical composition including a compoundand one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukemias, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid.,Embodiments may also include a method for the treatment of a hyper-proliferative disorder including administering an effective amount of a pharmaceutical compositionto a subject in need thereof. In some embodiments, the hyper-proliferative disorder to be treated may be a solid tumor, lymphoma, sarcoma, leukemia or cancer of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid or parathyroid.,In some embodiments, the. Embodiments may also include cancer of the breast may be invasive ductal carcinoma, invasive lobular carcinoma, ductal carcinoma in situ, or lobular carcinoma in situ. Embodiments may also include cancer of the respiratory tract may be small-cell and non-small-cell lung carcinoma, bronchial adenoma or pleuropulmonary blastoma.,Embodiments may also include cancer of the brain may be brain stem glioma, hypophtalmic glioma, cerebellar astrocytoma, cerebral astrocytoma, medulloblastoma, ependymoma, neuroectodermal tumor or pineal tumor. Embodiments may also include cancer of the male reproductive organ may be prostate cancer, testicular cancer, endometrial cancer, cervical cancer, ovarian cancer, vaginal cancer, vulvar cancer or sarcoma of the uterus.,Embodiments may also include cancer of the digestive tract may be anal cancer, colon cancer, colorectal cancer, esophageal cancer, gallbladder cancer, gastric cancer, pancreatic cancer, rectal cancer, small intestine cancer or salivary gland cancer. Embodiments may also include cancer of the urinary tract may be bladder cancer, penile cancer, kidney cancer, renal pelvis cancer, ureter cancer or urethral cancer.,Embodiments may also include cancer of the eye may be intraocular melanoma or retinoblastoma. Embodiments may also include cancer of the liver may be hepatocellular carcinoma (liver cell carcinomas with or without fibrolarnellar variant), cholangiocarcinoma (intrahepatic bile duct carcinoma), or mixed hepatocellular cholangiocarcinoma. Embodiments may also include cancer of the skin may be squamous cell carcinoma, Kaposi&amp;.,Embodiments may also include apos. Embodiments may also include s sarcoma, malignant melanoma, Merkel cell skin cancer, or non-melanoma skin cancer. Embodiments may also include cancer of the head-and-neck may be laryngeal cancer, hypopharyngeal cancer, nasopharyngeal cancer, oropharyngeal cancer, lip cancer or oral cavity cancer.,In some embodiments, the lymphoma may be AIDS-related lymphoma, non-Hodgkin&amp;. Embodiments may also include apos. Embodiments may also include s lymphoma, cutaneous T-cell lymphoma, Hodgkin&amp;. Embodiments may also include apos. Embodiments may also include s disease, or lymphoma of the central nervous system. In some embodiments, the Sarcoma may be sarcoma of the soft tissue, osteosarcoma, malignant fibrous histiocytoma, lymphosarcoma, or rhabdomyosarcoma. In some embodiments, the Leukemia may be acute myeloid leukemia, acute lymphoblastic leukemia, chronic lymphocytic leukemia, chronic myelogenous leukemia, or hairy cell leukemia.,In some embodiments, the pharmaceutically suitable excipient may be water. Embodiments may also include a pharmaceutical composition according towhich may be a sterile injectable aqueous suspension. In some embodiments, the pharmaceutically suitable excipient may be selected from vegetable oil, arachis oil, olive oil, sesame oil, coconut oil, mineral oil and liquid paraffin.,Embodiments may also include a pharmaceutical composition according towhich may be an oily suspension. Embodiments may also include a pharmaceutical composition including the compound of the formula (II)and one or more inert, nontoxic, pharmaceutically suitable excipients. Embodiments may also include a method for treating hyper-proliferative disorders including administering an effective amount of a pharmaceutical compositionto a subject in need thereof.,In some embodiments, the pharmaceutical composition may include one or more other pharmaceutical agents. In some embodiments, the one or more other pharmaceutical agents may be anti-hyper-proliferative agents, cytotoxic agents, signal transduction inhibitors, anti-cancer agents and/or antiemetics. Embodiments may also include a combination including the compound of the formula (II)and one or more other pharmaceutical agents.,In some embodiments, the one or more other pharmaceutical agents may be cytotoxic agents, signal transduction inhibitors, anti-cancer agents, or antiemetics. Embodiments may also include a pharmaceutical composition including a compoundof the formula (II) and a pharmaceutically suitable excipient for the treatment of hyper-proliferative disorders.,Embodiments may also include a pharmaceutical composition including a compoundof the formula (II) and a pharmaceutically suitable excipient for the treatment of tumors of the digestive tract. Embodiments may also include a method for the treatment of tumors of the digestive tract including administering an effective amount of a pharmaceutical compositionto a subject in need thereof.,Embodiments may also include a pharmaceutical composition including a compoundof the formula (II) and a pharmaceutically suitable excipient for the treatment of colorectal cancer. Embodiments may also include a method for the treatment of colorectal cancer including administering an effective amount of a pharmaceutical compositionto a subject in need thereof. Embodiments may also include a compound of the formula (II)which contains H2O in an amount of 3.6% by weight.,Embodiments of the present disclosure may also include a process for the preparation of the compound of the formula (II). Embodiments may also include which may include dissolution of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl{amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an inert solvent and adding water until precipitation.,Embodiments of the present disclosure may also include a process for the preparation of the compound of the formula (II). Embodiments may also include which may include suspension of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl}amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an aqueous solvent and then stirring or shaking until conversion to the compound of the formula (II).,Embodiments of the present disclosure may also include, the compound of the formula (II). Embodiments may also include which shows in the X-ray diffractometry a peak maximum of the 2 Theta angle of 21.2. In some embodiments, the compoundwhich shows in the FIR spectrum a peak maximum of 353 cm−1. Embodiments may also include a pharmaceutical composition including a compoundand one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukaemia&amp;. Embodiments may also include apos. Embodiments may also include s, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid.,Embodiments may also include a method for the treatment of a hyper-proliferative disorder including administering an effective amount of a pharmaceutical compositionto a subject in need thereof. Embodiments may also include a method for the treatment of tumors of the digestive tract including administering an effective amount of a pharmaceutical compositionto a subject in need thereof. Embodiments may also include a method for the treatment of colorectal cancer including administering an effective amount of a pharmaceutical compositionto a subject in need thereof.</v>
-      </c>
-      <c r="C5" t="str">
-        <v>FIG. 1 is a block diagram illustrating a compound, according to some embodiments of the present disclosure.,FIG. 2 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 3 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 4 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 5 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 6 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 7 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 8 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 9 is a block diagram further illustrating the compound from FIG. 1, according to some embodiments of the present disclosure.,FIG. 10 is a block diagram illustrating the compound, according to some embodiments of the present disclosure.,FIG. 11 is a block diagram illustrating the compound, according to some embodiments of the present disclosure.,FIG. 12 is a block diagram illustrating the compound, according to some embodiments of the present disclosure.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>FIG. 1 is a block diagram that describes a compound 100, according to some embodiments of the present disclosure. In some embodiments, a method for treating hyper-proliferative disorders. Administering an effective amount of a pharmaceutical composition to a subject in need thereof. In some embodiments, the compound 100 of the formula (II) and one or more other pharmaceutical agents. In some embodiments, the one or more other pharmaceutical agents may be cytotoxic agents, signal transduction inhibitors, anti-cancer agents, or antiemetics.,FIG. 2 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 204 may also include a compound 206 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukemias, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, a method for the treatment of a hyper-proliferative disorder. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.,In some embodiments, the hyper-proliferative disorder to be treated may be a solid tumor, lymphoma, sarcoma, leukemia or cancer of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid or parathyroid. In some embodiments, the. The lymphoma may be AIDS-related lymphoma, non-Hodgkin&amp;. S lymphoma, cutaneous T-cell lymphoma, Hodgkin&amp;. The Sarcoma may be sarcoma of the soft tissue, osteosarcoma, malignant fibrous histiocytoma, lymphosarcoma, or rhabdomyosarcoma. The Leukemia may be acute myeloid leukemia, acute lymphoblastic leukemia, chronic lymphocytic leukemia, chronic myelogenous leukemia, or hairy cell leukemia.,FIG. 3 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 204 may also include a compound 206 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukemias, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, the pharmaceutically suitable excipient may be water. In some embodiments, which may be a sterile injectable aqueous suspension.,FIG. 4 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 204 may also include a compound 206 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukemias, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, the pharmaceutically suitable excipient may be selected from vegetable oil, arachis oil, olive oil, sesame oil, coconut oil, mineral oil and liquid paraffin. In some embodiments, which may be an oily suspension.,FIG. 5 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the compound 100 of the formula (II) and one or more inert, nontoxic, pharmaceutically suitable excipients. In some embodiments, the pharmaceutical composition 520 may include one or more other pharmaceutical agents 522. In some embodiments, the one or more other pharmaceutical agents 522 may be anti-hyper-proliferative agents, cytotoxic agents, signal transduction inhibitors, anti-cancer agents and/or antiemetics.,FIG. 6 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 620 may include a compound 622 of the formula (II) and a pharmaceutically suitable excipient for the treatment of hyper-proliferative disorders.,FIG. 7 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 720 may include a compound 722 of the formula (II) and a pharmaceutically suitable excipient for the treatment of tumors of the digestive tract. In some embodiments, a method for the treatment of tumors of the digestive tract. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.,FIG. 8 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the pharmaceutical composition 820 may include a compound 822 of the formula (II) and a pharmaceutically suitable excipient for the treatment of colorectal cancer. In some embodiments, a method for the treatment of colorectal cancer. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.,FIG. 9 is a block diagram that further describes the compound 100 from FIG. 1, according to some embodiments of the present disclosure. In some embodiments, the compound 920 may include H2O 922 in an amount of 3.6% by weight.,In some embodiments, which comprises dissolution of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl{amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an inert solvent and adding water until precipitation.,In some embodiments, which comprises suspension of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl}amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an aqueous solvent and then stirring or shaking until conversion to the compound of the formula (II).,In some embodiments, the compound of the formula (II). Which shows in the X-ray diffractometry a peak maximum of the 2 Theta angle of 21.2.,FIG. 10 is a block diagram that describes the compound, according to some embodiments of the present disclosure. In some embodiments, which shows in the FIR spectrum a peak maximum of 353 cm−1. In some embodiments, the pharmaceutical composition 1000 may also include a compound 1010 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukaemia&amp;. The compound 1010 may include apos 1012 and s 1014. The compound 1010 may also include cancers 1016 of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, a method for the treatment of a hyper-proliferative disorder. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.,FIG. 11 is a block diagram that describes the compound, according to some embodiments of the present disclosure. In some embodiments, which shows in the FIR spectrum a peak maximum of 353 cm−1. In some embodiments, the pharmaceutical composition 1000 may also include a compound 1010 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukaemia&amp;. The compound 1010 may include apos 1012 and s 1014. The compound 1010 may also include cancers 1016 of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, a method for the treatment of tumors of the digestive tract. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.,FIG. 12 is a block diagram that describes the compound, according to some embodiments of the present disclosure. In some embodiments, which shows in the FIR spectrum a peak maximum of 353 cm−1. In some embodiments, the pharmaceutical composition 1000 may also include a compound 1010 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukaemia&amp;. The compound 1010 may include apos 1012 and s 1014. The compound 1010 may also include cancers 1016 of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid. In some embodiments, a method for the treatment of colorectal cancer. Administering an effective amount of a pharmaceutical composition to a subject in need thereof.</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Embodiments of the present disclosure may include a compound of the formula (II).</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">What is claimed is:_x000d_
-1. A compound of the formula (II)_x000d_
-2. A pharmaceutical composition comprising a compound of claim 1 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukemias, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid._x000d_
-3. A method for the treatment of a hyper-proliferative disorder comprising administering an effective amount of a pharmaceutical composition of claim 2 to a subject in need thereof._x000d_
-4. The method of claim 3 wherein the hyper-proliferative disorder to be treated is a solid tumor, lymphoma, sarcoma, leukemia or cancer of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid or parathyroid._x000d_
-5. A pharmaceutical composition comprising the compound of the formula (II) of claim 1 and one or more inert, nontoxic, pharmaceutically suitable excipients._x000d_
-6. A method for treating hyper-proliferative disorders comprising administering an effective amount of a pharmaceutical composition of claim 5 to a subject in need thereof._x000d_
-7. A combination comprising the compound of the formula (II) of claim 1 and one or more other pharmaceutical agents._x000d_
-8. The combination of claim 7 wherein the one or more other pharmaceutical agents are cytotoxic agents, signal transduction inhibitors, anti-cancer agents, or antiemetics._x000d_
-9. The pharmaceutical composition of claim 5 comprising one or more other pharmaceutical agents._x000d_
-10. The pharmaceutical composition of claim 9 wherein the one or more other pharmaceutical agents are anti-hyper-proliferative agents, cytotoxic agents, signal transduction inhibitors, anti-cancer agents and/or antiemetics._x000d_
-11. A pharmaceutical composition comprising a compound of claim 1 of the formula (II) and a pharmaceutically suitable excipient for the treatment of hyper-proliferative disorders._x000d_
-12. A process for the preparation of the compound of the formula (II)_x000d_
- which comprises dissolution of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl{amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an inert solvent and adding water until precipitation._x000d_
-13. A process for the preparation of the compound of the formula (II)_x000d_
- which comprises suspension of 4-[4-({[4-chloro-3-(trifluoromethyl)phenyl]carbamoyl}amino) -3-fluorophenoxy]-N-methylpyridine-2-carboxamide in an aqueous solvent and then stirring or shaking until conversion to the compound of the formula (II)._x000d_
-14. A pharmaceutical composition comprising a compound of claim 1 of the formula (II) and a pharmaceutically suitable excipient for the treatment of tumors of the digestive tract._x000d_
-15. A pharmaceutical composition comprising a compound of claim 1 of the formula (II) and a pharmaceutically suitable excipient for the treatment of colorectal cancer._x000d_
-16. A method for the treatment of tumors of the digestive tract comprising administering an effective amount of a pharmaceutical composition of claim 14 to a subject in need thereof._x000d_
-17. A method for the treatment of colorectal cancer comprising administering an effective amount of a pharmaceutical composition of claim 15 to a subject in need thereof._x000d_
-18. A method of claim 4 wherein the _x000d_
- cancer of the breast is invasive ductal carcinoma, invasive lobular carcinoma, ductal carcinoma in situ, or lobular carcinoma in situ; _x000d_
- cancer of the respiratory tract is small-cell and non-small-cell lung carcinoma, bronchial adenoma or pleuropulmonary blastoma; _x000d_
- cancer of the brain is brain stem glioma, hypophtalmic glioma, cerebellar astrocytoma, cerebral astrocytoma, medulloblastoma, ependymoma, neuroectodermal tumor or pineal tumor; _x000d_
- cancer of the male reproductive organ is prostate cancer, testicular cancer, endometrial cancer, cervical cancer, ovarian cancer, vaginal cancer, vulvar cancer or sarcoma of the uterus; _x000d_
- cancer of the digestive tract is anal cancer, colon cancer, colorectal cancer, esophageal cancer, gallbladder cancer, gastric cancer, pancreatic cancer, rectal cancer, small intestine cancer or salivary gland cancer; _x000d_
- cancer of the urinary tract is bladder cancer, penile cancer, kidney cancer, renal pelvis cancer, ureter cancer or urethral cancer; _x000d_
- cancer of the eye is intraocular melanoma or retinoblastoma; _x000d_
- cancer of the liver is hepatocellular carcinoma (liver cell carcinomas with or without fibrolarnellar variant), cholangiocarcinoma (intrahepatic bile duct carcinoma), or mixed hepatocellular cholangiocarcinoma; _x000d_
- cancer of the skin is squamous cell carcinoma, Kaposi&amp;apos;s sarcoma, malignant melanoma, Merkel cell skin cancer, or non-melanoma skin cancer; _x000d_
- cancer of the head-and-neck is laryngeal cancer, hypopharyngeal cancer, nasopharyngeal cancer, oropharyngeal cancer, lip cancer or oral cavity cancer; _x000d_
- the lymphoma is AIDS-related lymphoma, non-Hodgkin&amp;apos;s lymphoma, cutaneous T-cell lymphoma, Hodgkin&amp;apos;s disease, or lymphoma of the central nervous system; _x000d_
- the Sarcoma is sarcoma of the soft tissue, osteosarcoma, malignant fibrous histiocytoma, lymphosarcoma, or rhabdomyosarcoma; _x000d_
- the Leukemia is acute myeloid leukemia, acute lymphoblastic leukemia, chronic lymphocytic leukemia, chronic myelogenous leukemia, or hairy cell leukemia._x000d_
-19. The compound of the formula (II)_x000d_
- which shows in the X-ray diffractometry a peak maximum of the 2 Theta angle of 21.2._x000d_
-20. The compound of claim 19 which shows in the FIR spectrum a peak maximum of 353 cm−1._x000d_
-21. A pharmaceutical composition comprising a compound of claim 20 and one or more pharmaceutically suitable excipients for the treatment of solid tumors, lymphomas, sarcomas, leukaemia&amp;apos;s, cancers of the breast, respiratory tract, brain, reproductive organs, digestive tract, urinary tract, eye, liver, skin, head and neck, thyroid and/or parathyroid._x000d_
-22. A method for the treatment of a hyper-proliferative disorder comprising administering an effective amount of a pharmaceutical composition of claim 21 to a subject in need thereof._x000d_
-23. A method for the treatment of tumors of the digestive tract comprising administering an effective amount of a pharmaceutical composition of claim 21 to a subject in need thereof._x000d_
-24. A method for the treatment of colorectal cancer comprising administering an effective amount of a pharmaceutical composition of claim 21 to a subject in need thereof._x000d_
-25. A compound of the formula (II) of claim 1 which contains H2O in an amount of 3.6% by weight._x000d_
-26. A pharmaceutical composition according to claim 2 wherein the pharmaceutically suitable excipient is water._x000d_
-27. A pharmaceutical composition according to claim 26 which is a sterile injectable aqueous suspension._x000d_
-28. A pharmaceutical composition according to claim 2 wherein the pharmaceutically suitable excipient is selected from vegetable oil, arachis oil, olive oil, sesame oil, coconut oil, mineral oil and liquid paraffin._x000d_
-29. A pharmaceutical composition according to claim 28 which is an oily suspension.</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>